--- a/excels/abilities/abilities_public.xlsx
+++ b/excels/abilities/abilities_public.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>名字</t>
   </si>
@@ -176,7 +176,7 @@
     <t>abilities/public/public_phase_move</t>
   </si>
   <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
   </si>
   <si>
     <t>public_attribute</t>
@@ -209,10 +209,10 @@
     <t>空技能#1</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>abilities/public/public_null</t>
+    <t>invoker_empty1</t>
+  </si>
+  <si>
+    <t>ability_datadriven</t>
   </si>
   <si>
     <t>public_null_2</t>
@@ -1516,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1835,11 +1835,9 @@
         <v>60</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1877,11 +1875,9 @@
         <v>60</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1919,11 +1915,9 @@
         <v>60</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1961,11 +1955,9 @@
         <v>60</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -2003,11 +1995,9 @@
         <v>60</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -2045,11 +2035,9 @@
         <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
